--- a/data/hotels_by_city/Dallas/Dallas_shard_130.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_130.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="982">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>halftone6</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>I stay in Marriott Courtyard hotels often – mainly for consistency. This hotel had a friendly staff, but the building itself is well below the expectations for Courtyard. Overall dated and a run-down feeling present everywhere. The beds lacked any kind of support. Not recommended. This one needs a renovation before I'd return.More</t>
   </si>
   <si>
+    <t>Keith N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r535980925-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>The last time I stayed at this location, 3 years ago, the property was old and tired.  When I walked into the lobby and saw the remodel that matches most other Courtyard properties, I was thinking that the rooms also had an upgrade.  Not on your life!  This is the original decor with one of the most broken in, used and abused mattresses I can recall in a long time.  The towels and linens are like sandpaper, the sink and faucet are awful and the carpet is horrendous.  I'm glad that I don't carry a blue light on my trips.  Now my hotel chain of choice and long time diamond status is with Hilton.  But I am Gold with Marriott and would expect some type of amenity upon check in.  Nope, not even a bottle of water, and no bottled water in the room, either.  When I requested an upgrade upon arrival, the standard reply of "Sorry, we are totally sold out" was the reply.  Didn't even take the time to look and see what was available.  The final disappointment was the lack of any courtesy coffee in the lobby for an early departure and no way to have the paid Starbucks machine turned on.  Just a very bad experience with so many other hotels within shouting distance of the Courtyard entrance.  Clean up your act and spend some of your many sold-out nights revenue on making the property acceptable.More</t>
   </si>
   <si>
+    <t>GreeneAL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r533695108-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>As platinum rewards members, we generally like staying in Marriott properties. The perks can at times make it more pleasant. But, our experience here was awful. I was willing to overlook the old yellow-tinged shower floor and shower walls, picture included.  I was even willing to overlook the foul smell in the room. It smelled like dirty feet/sewer. Perhaps they haven't changed the AC filters in a long time or refreshed the room between customers? The should-be white bedding and towels were all well-worn and had the similar yellowish tinge that the shower had. What we are not able to overlook was the 2 inch cockroach in the room. Pic included for that as well.  We checked out immediately and will surely never return. Frankly I'm wondering if a call to the health department is warranted. More</t>
   </si>
   <si>
+    <t>Laurenrenae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r527084176-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>Driving through the area and needed a place to stay, and Courtyards are generally pretty safe bets. The room rate was pretty great too considering the other rooms in that complex were over double that price. The lobby was just renovated so very clean, nice sitting areas and breakfast bar area with Starbucks, a small snack/necessities shop.  However, the halls and rooms are definitely in need of a Reno and very soon. They are very dated and tired. However, my room was clean and for the rate I paid (like $86), clean is about the best you can hope for! The front desk was very friendly and told us the rooms should start renovating this year. So hopefully when you stop by the my will be clean AND new! Safe travels! More</t>
   </si>
   <si>
+    <t>Jason P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r500837513-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>We arrived late and there was a convention going on.  People had trailers taking up 5-6 spots each soon parking.  Room was ok, average, as expected for the price, TV was broken though.  Called down for towels and we were told we could go down and get them...  am I being snobbish to expect them to bring them up?  Between checking in and out and towels, somebody needs to improve customer service.  We will be trying a different hotel next time.  More</t>
   </si>
   <si>
+    <t>Jadehawk1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r499799120-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Lots of potential. Room was clean. Nice lobby, and outdoor area in back next to pool area. Pool is ok. Bar closes too early. Other comparable hotels include coffee and breakfast so having to pay extra is disappointing. More</t>
   </si>
   <si>
+    <t>Jerry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r499648951-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -339,6 +360,9 @@
     <t>Failed to disclose "incidental fees" charge of $20.00 per night. They do not have complementary coffee in the loung.  The $30+ breakfast was cold ( French Toast ) &amp; not completely cooked, the scrambled eggs was Luke warm, the potatoes were seasoned without notice of option, the toast was very cold. The lavatory faucet leaks around the handle when turned on.While the staff was forthcoming with answers, there was no enthusiasm.  I ask to speak to the manager, however the manager hasn't contacted me as of this writing.  My rating for this Marriott location is 1 star for service, 5 stars for appearance, 3 stars for comfort &amp; no stars for quality of food.More</t>
   </si>
   <si>
+    <t>1968GT500</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r497269658-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>This Courtyard is by far the worst Marriott property I have ever stayed at.  Staff is rude and untrained. The facility is terribly dated.  In addition the property does not have the amenities that they advertise and show online.   I am shocked that Marriott would allow this property to be licensed under their name.   More</t>
   </si>
   <si>
+    <t>anneb1229</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r496848161-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>We stayed at this hotel for a weekend in June to attend a graduation.  The rooms were worn and dated; haven't been remodeled recently but the lobby is inviting and modern.  The market which serves Starbucks and breakfast in the morning and light fare and beer/wine at night is nice but the hours it was open weren't always convenient.  The morning staff was nice but mixed up our order both mornings.  The evening person who worked on June 9th was not friendly.  We had just arrived after a long flight to check in a few minutes after 10pm and four people were in the market having wine.  We asked if we could order a glass and she said "No, we are closed and have a good night" (in a sarcastic tone) and picked up her purse to leave.  I guess her shift just ended.  I understand the hours but she could have handled the situation with better customer service.  She could have said "Sorry, we close at 10pm but there is a BJ's restaurant and bar just across the parking lot in walking distance".  The friendly front desk person told us about BJ's being open.  Probably won't stay again.  Good customer service is huge.More</t>
   </si>
   <si>
+    <t>joanne a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r486891720-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -417,6 +447,9 @@
     <t>Very clean and modern hotel with a very pleasant and accommodating staff.  Would stay there again and It's close by to many shops.  I have found the Marriott Courtyards to be consistent in quality and this one did not disappoint.More</t>
   </si>
   <si>
+    <t>Alfred D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r485265336-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>As always, Marriott hotels are great. Friendly staff, clean rooms and areas.  This hotel is nicely located, at walking distance of many restaurants and the mall. The breakfast at the Bristo is great and the staff there is very friendly and helpful as well. More</t>
   </si>
   <si>
+    <t>LookingForFamilyFun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r482685403-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -466,6 +502,9 @@
   </si>
   <si>
     <t>We stayed one week night here in a room that faced south (121) on the 3rd floor.  The room was nice &amp; clean, beds were comfy, but this has obviously not been updated recently, though everything is in good condition...the 'style' isn't new.A primary concern was the quality of breakfast &amp; we were not disappointed...not all rates include breakfast, but we made sure to select a rate with breakfast &amp; weren't disappointed.  You can also purchase breakfast, something substantial is about $12 a person, a large fruit cup is about $4.  Rooms facing the highway are going to be noisier, particularly during traffic times, probably better in the morning on a weekend...but a weekday morning, expect noise to really increase about 5:30am.  Ask for a room that doesn't face the highway &amp; you'll have more quiet, but will likely still be affected...but that would be about the same for most hotels near here, it is right by the highway!More</t>
+  </si>
+  <si>
+    <t>Dave H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r461540986-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -501,6 +540,9 @@
 Overall the stay was decent.  I wouldn't do it again until they...The favorite part of my stay was defiantly the food.  Hotel food is generally not that great.  I'm happy to say that while the menu is somewhat limited, the food is prepared fresh to order.  The breakfast plates were generous in their portions, and genuinely taste good...not a huge tub of powdered eggs like some places.  I even had dinner at the hotel one night, and am happy to say that it was delicious.  Great job on the food!My room was a freeway facing room, and boy was it loud.  I never heard people in the hallways, but between the freeway noise, and my neighbors running water, it was generally noisy, which results in taking a little longer to get to sleep each night.  The room was clean, but could have been cleaner.  For example there were stains on the tiled bathroom floor. that could have gone away with a little scrubbing.  The drain plug in the tub was broken, and eventually the cleaning crew just removed it for some reason.  A courtyard facing room would probably have been quieter though.It's 2017 now, and crappy, unreliable Wi-Fi is inexcusable now.  Business travelers rely on it for work, and leisure travelers rely on it to keep in touch with friends and family.  &lt;1MB download speeds are not acceptable anymore.  Especially at the rate that room sold for.Overall the stay was decent.  I wouldn't do it again until they fixed a few things, because there are newer, more updated hotels in the area.  That said, the food was very good, and the staff were was very hospitable.More</t>
   </si>
   <si>
+    <t>Robro64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r454349451-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>Recently stayed at this Courtyard for my daughters soccer games over the weekend. Property was a typical Courtyard. Very well maintained and seemed very clean. The staff at this location separated them from the rest. Everyone from the Front desk to the Starbucks/ Restaurant was very pleasant and attentive which really stood out. Would certainly stay here again!More</t>
   </si>
   <si>
+    <t>ncchar06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r453406196-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>I cannot say enough about the staff, they are fantastic!!!! The hotel itself looks like it's in the middle of a refresh, but has a way to go. My room was adequately clean, but had a damp smell and miscellaneous substance on the remote control which was gross. On my last morning there was no hot water...not their fault, but was the cherry on the sundae for sure. Again, the staff is fabulous and super helpful. I hope the hotel itself rises to meet the level of the team that works there. I will not come back until the hotel is finished with renovations.More</t>
   </si>
   <si>
+    <t>gene s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r408239239-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>After not being able to find anything up by the casino, we headed south and Courtyard by Marriott Lewisville was the first thing that came to mind. Bed was soft, room seem to be older...probably built in the 90's...not bad but where was the breakfast?!?! I didn't realize not even a cup of coffee was complimentary unless u made it yourself in your room!! Next time it will be Fairfield!!More</t>
   </si>
   <si>
+    <t>China P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r407951744-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>The hotel was nice for a girls trip.  The beds were very comfortable and the room clean.  They serve a nice breakfast with a reasonable selection.  I enjoyed the indoor pool and jacuzzi for a little relaxation.  Check in and check out was convenient I would definitely return there.More</t>
   </si>
   <si>
+    <t>mamibeverly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r403848776-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -618,6 +672,9 @@
     <t>Arrived for a business trip - was affected by the Delta delays so by the time I got to the hotel, all I wanted to do was clean up and sleep. I had to go down the lobby three times as my key was not working (annoying to death) but the front desk gal was amazing. She tried the key, saw it did not work, opened another room and even delivered the key. The breakfast crew was very good, fast and efficient. Food is ok. Location was good (near the freeways).More</t>
   </si>
   <si>
+    <t>jacobe64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r392658477-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -645,6 +702,9 @@
     <t>Great location, easy to get to.  Short drive or a bit of a walk to a ton of shopping and dining in all price ranges.  Typical Courtyard with very clean rooms and an attentive staff.  Stayed for two consecutive weeks and had no real issues.  Would not hesitate to stay there again.More</t>
   </si>
   <si>
+    <t>Georges N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r386920343-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -666,6 +726,9 @@
     <t>Room was quiet and comfy. We got a crib delivered to the room for the baby. We enjoyed the location's proximity to the mall and restaurants. The staff was friendly and very helpful. We'll definitely return here again!More</t>
   </si>
   <si>
+    <t>Michael L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r385555562-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -687,6 +750,9 @@
     <t>I stayed one night last week on business and again last night on business. The front desk staff is great and assisted me with finding a place for dinner. I had breakfast today and the french toast is great. The hotel is clean and lobby is updated.More</t>
   </si>
   <si>
+    <t>Philpot122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r382983614-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -711,6 +777,9 @@
     <t>Hotel is near the our company's office in Lewisville.  The Room was clean, and the breakfast was fantastic.  Starbucks in the lobby was a nice extra.  Front staff was friendly and helpful with restaurant ideas.  Will use this hotel again!More</t>
   </si>
   <si>
+    <t>bernardghking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r382303768-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>All was good.  My family was treated very well throughout our recent stay.  Of particular note, was the above and beyond service and hospitality we received from Amber Borges.  Not only did she take great care of us, her representation of Marriott was exemplary and her professionalism of the highest order.  Many thanks to Amber for all that she did to make our stay all the more enjoyable.  Will return.More</t>
   </si>
   <si>
+    <t>GlobalHealthMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r380437459-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>Hotel staff is friendly and professional so this review is not a knock on the personnel. Property itself is old and run down. Entering my room, I could smell a damp musty odor. The carpet has no padding underneath so the floor is hard. The bed mattress is overly soft and just feels worn out with no support. The entry appears to have been modified to reflect the standard Courtyard appearance but that's where it all similarities end. Very disappointing. I can't comment on any other amenities as I didn't experience. My colleagues were staying at the Marriott Spring Hills just a block away and said it was a much nicer Marriott property based on their own experience having stayed at this Courtyard. Until this hotel undergoes a major renovation, I would not recommend staying.More</t>
   </si>
   <si>
+    <t>rhocking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r369673687-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>Great location, the staff are always friendly, helpful and professional.  My impressions of the Lewisville staff have been formed over the seven months I've stayed with the team.  I've been staying with the Courtyard brand of properties world-wide for over 10 years, averaging 120 nights/year and I'd rate the Lewisville staff among the best I've have the pleasure to stay with.More</t>
   </si>
   <si>
+    <t>TravelManSouth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r362929973-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -807,6 +885,9 @@
     <t>I guess there's a reason this one was $135 when others were $275+ that night - yes, SPringhills and Courtyards.  It's near restaurants....I suppose that's good.  The bed...horribly soft.  The carpet and decor...disgusting.  The bistro - the staff was nice but clueless....people kept going up and saying - where's my food...only to find it's been sitting 5 mins.  The gym - if you like a TV behind you, great. All in all, this place blows.  Clearly, they have not invested in the Marriott facility program.  You get what you pay for I guess....old, yucky, and just not nice.More</t>
   </si>
   <si>
+    <t>Monica R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r361316107-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -831,6 +912,9 @@
     <t>I checked in this hotel yesterday, staff was nice but charged me almost $30 more that the agreed amount (I booked the room through Hotels.com). I did not noticed the amount charged was different until I checked my credit card statement later ( I did not get a receipt until the next day). The next morning at the checkout I asked the receptionist why I was charged more that the agreed price and she told me that they charge that amount in case "YOU STEAL SOMETHING" (literally her words) and that the amount will be adjusted in a few days.Rude,offensive answer and a really poor choice of words.If you want to be overcharged without warning and  insulted please be their guest.More</t>
   </si>
   <si>
+    <t>BingCh0w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r360663241-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -855,6 +939,9 @@
     <t>Location right off of interstate, the location near several restaurants. The hotel itself was somewhat dated to a degree, not fancy, but it served its purpose, I would say 6 out of 10 on a rate scale. The room I stayed in was very clean, the room was quite but then again I was there in early week so it was business travelers only (e.g. no kids, no prom parties, for fraternity rush’s, no parties).  Staff was polite, rooms were very clean. It was a nice hotel stay; if I travel to the location again I will look to other lodging’s, I think I counted 7 or 8 other hotels, several looked brand new. Hotel rate and food/beverage costs are rather high, but it due to that they know its business travelers so the price is expensed.More</t>
   </si>
   <si>
+    <t>PlatinumStatusOrBust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r357059820-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
     <t>This is going to be the same thing you've seen at other Courtyards so nothing special. It is convenient when you have things going on north of the airport and also tends to be a cost effective option versus some other brands and chains.  Good for a business night but outside of that, I'm not interested in staying. It has a couple restaurants in walking distance which is nice.The service was good. The folks were hospitable and courteous. Way better than the folks at the Courtyards in Newark, NJ for example. Outside of that, nothing memorable about this place.More</t>
   </si>
   <si>
+    <t>Doug N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r352734073-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -906,6 +996,9 @@
     <t>I stayed at the hotel for 4 nights.  I had the opportunity to talk with the GM Nicholas.  He was tending bar the night I talked to him.  He was friendly and fun to talk too.  The rooms were clean and fresh.  I used the workout room, all machines were working.  The breakfast buffet was good, but pretty basic.More</t>
   </si>
   <si>
+    <t>JD H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r349823162-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1023,9 @@
     <t>I had a third floor room facing the highway.  Noise was not bad.  Close to resturants and shopping.  Easy access to the highways.  Breakfast was good.  Sometimes they were slow to open in the morning.   Office was friendly and lobby was clean.More</t>
   </si>
   <si>
+    <t>OSUfanHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r343490188-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1053,9 @@
     <t>Courtyards by design are mostly for a quick stay in a convenient location.  This one is no exception.  Quick access to the freeway, surrounded by (and within walking distance) of several dining establishments, and clustered with other brand named hotels if a group cannot stay all under one roof.  The property is clean, the staff I encountered exceptionally friendly, the lobby has been upgraded and the landscaping is fresh.  The rooms however, need some upgrades.  I literally had footprints on my ceiling where it appears someone killed a flying insect.  My room also was listed as a no clean room?  So upon return from a 12 hr day...I had to call down to the desk to have some towels traded out.  Upon my inquiry, I was told I was listed as a no clean room...perhaps requested by my neighbor. The fitness room was a popular destination.  However turns out the neighborhood is a safe running/walking alternative as many residents close by use the Mall area behind the hotel as a regular running course.  This week's stay was very busy...good for hotel bad for breakfast, so inquire about occupancy the evening before to judge if you should stash some food in the in-room fridge for your own convenience.  Overall, I would return based upon convenience, cleanliness and friendliness of staff.More</t>
   </si>
   <si>
+    <t>yebor9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r328645687-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1083,9 @@
     <t>We booked on Priceline for 2 nights and knew going in that we could not guarantee what kind of bedding would be in the room.  When we arrived, we asked for two double beds.  Amber politely informed us that there were no doubles available.  She gave us a King room with a pullout and promised to let us know if anything opened up.  We were out and about early the next morning, but when we returned around 5, she saw us come in told us that she had arranged for us to change rooms to two doubles.  It was a really nice surprise and I so appreciated her follow up.  The hotel is average, but the customer service made it a stand out.  Thanks Amber!More</t>
   </si>
   <si>
+    <t>moviejunki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r324558225-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1107,9 @@
     <t>Room was adequate in size and despite our room facing the highway it was surprisingly quiet.  Check in was easy and the staff was friendly and helpful.  There is adequate parking and a well lit parking lot.  The room was clean and the bed was very comfortable. I would gladly stay here again.  :)More</t>
   </si>
   <si>
+    <t>Morgan E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r320537126-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1134,9 @@
     <t>We booked this hotel leaving and coming back from our honeymoon. We were flying in and out of DFW airport. I called and asked if they provided a shuttle to the airport not once, but 3 times. It wasn't until the week before and the third time I cheked that they told me that they do not provide a shuttle. Luckily I was able to make a reservation at another hotel. We kept our reservation for when we returned, because the other hotel was akready sold out. I called not once but 3 times to verify the date for the reservation since we were not getting in until after 1 am I asked 3 different people what date the reservation needed to be for. Once again they told me wrong and I did not find out until were were about to get on our return flight. Luckily I called. Now we have to drive back to Waco from Dallas, because of their gross incompetence. I have NEVER had such a bad experience with a hotel. The front desk just gives you an answer even of it is completely wrong. Very dissapointed. More</t>
   </si>
   <si>
+    <t>Peter S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r242200620-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1164,9 @@
     <t>Writing this review at midnight on a Sunday, before I have to be at work Monday morning. Why am I awake so late? Because I awoke to a creepy crawly crawling on my face, (Picture included). After freaking out and killing it (smacking it with pillows was unsuccessful...of course), I went down stairs to get a new room ASAP. I tell the staff about my experience and ask, "Can you give me the keys to another room so I can sleep there tonight? I don’t want to move my stuff, I just want to sleep and will figure out everything tomorrow". Again, the fact that I am writing this at midnight means that did not go to plan.I was informed that it was not possible to give me another room, as long as I had the original room. "That is not the way the system works". Having roaches crawling around on the bed is not how hotel rooms are supposed to work. Dreary eyed, I gave up the fight and took a key to a new room, packed all my stuff up, and am now in a new HOPEFULLY critter free room.If it was possible to checkout tonight and get out of this place, I would. That will have to be an adventure for tomorrow. I guess the name brand of Marriott doesn't really mean much.More</t>
   </si>
   <si>
+    <t>Jeff P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r233190255-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1194,9 @@
     <t>Great place to stay if flying in or out of DFW.  15 minutes or so from airport with a lot of restaurant choices nearby.  You can walk or drive easily to many options.  Hotel is updated and typical of a Courtyard.More</t>
   </si>
   <si>
+    <t>justjulesrtw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r233156930-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1212,9 @@
     <t>I stayed at this Courtyard by Marriott for one night on a business trip in early October.  I traveled with my two school-age children who were along to visit relatives.  Location:  The location is handy to 121 and Hwy 35.  It is right next to the Mall and many restaurants, etc.  We were able to walk in the AM to Starbucks. It is right next to another Marriott property.Room:  TV channels were adequate.  Room was clean.  Queen size beds.  You could tell by the light fixtures, etc. that it is slightly older than some of the other properties I have stayed at in this same chain.  NO floor length mirror.Staff:  The front desk agent, Kathyrn, went out of her way to answer my questions and make sure the room was ready when I called to tell her of our late arrival.  She brought up extra towels and pillows to the room right away. Bath:  The bathroom was adequate.  My only CON is that the outside courtyard area by the pool was a little dingy.  We didn't use the pool but walked through. In summary, a very nice Courtyard.  Great price for the Queen beds.  If you need to stay in Lewisville you should stay here.  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Audrey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r232081699-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1149,6 +1266,9 @@
     <t>Stayed two nights at this hotel.  Room was clean, air conditioner worked great overall  a very comfortable stay.  What made this stay special was the front desk staff and the breakfast staff.  The breakfast staff was fast and very professional.  The Starbucks station was spot on with the drinks and I am not sure who was preparing the breakfast specials but they were excellent.  Will return on the next trip.More</t>
   </si>
   <si>
+    <t>Timothy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r229338704-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1290,9 @@
     <t>I travel 40+ weeks a year.  Every time I'm in the Dallas area, I stay at this property because it is a) easy to get to my clients, b) 4 star service at a 3 star price, c) close to great sports venues (Rangers &amp; Cowboys), and d) solid great service.  When I check in, Hannah and the other clerks already know about my stay and welcome me by name.  The Bistro is fully stocked with smart meals, drinks and cocktails.  You'll meet cool stewards like Cameron, Geren, and Cesar.  They will do anything and everything to make sure you do not go hungry or thirsty.   Very cool bistro and common space to hang out, but you can also take everything back to your room if you want.  Traveling so much, I must have a room that I can truly rest and get some sound sleep in.  I've never been awaken by other guests, city noise and the beds are clean and comfy with contemporary/comfortable &amp; clean linens.More</t>
   </si>
   <si>
+    <t>Gdsmith59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r226951025-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1317,9 @@
     <t>This property appeared to be brand new.  The condition of the property was one of the best I have encountered.  The desk staff was very knowledgeable and helpful.  The breakfast was well stocked, hot and tasty.  The location was very close to a very nice mall and several dining options.More</t>
   </si>
   <si>
+    <t>jpbrec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r220431373-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1347,9 @@
     <t>The staff was very friendly and treated me like I was more than a guest. This property is in a great location and close to a variety of restaurants and attractions. The room was clean and every effort was made to accommodate my preferences. Will stay here again!More</t>
   </si>
   <si>
+    <t>Lex682</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r219750281-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1248,6 +1377,9 @@
     <t>Let me start by saying that the reason I won't return to this particular property have more to do with service and not the property itself.  This is your typical Courtyard by Marriott.  The location is good with proximity to the highway and just up the road from DFW airport.  There are plenty of restaurants and shopping in the area.  The room is average.  The bed was comfortable but I could have used better pillows.  They were small and soft and even lumping them all together still barely got me a normal single pillow.  The property was relatively clean.  The problems started because there were several sports teams in town for the weekend for various tournaments.  When we were involved in select/club sports we had teams stay at this particular property as well.  It is situated convenient to several sports venues so it is a popular choice.  However, that means that you have kids of various ages (teens &amp; pre-teens) roaming around.  There are plenty of clubs and teams with kids who know how to behave in public.  On this particular weekend, there was a basketball team of teenage boys that were unruly and not well supervised.  The kids were all in a room together with no adult (pretty sure you have to have someone over the age of 18 in the room with them but that didn't happen).  They were loud, obnoxious, disrespectful and rude.  I called the front...Let me start by saying that the reason I won't return to this particular property have more to do with service and not the property itself.  This is your typical Courtyard by Marriott.  The location is good with proximity to the highway and just up the road from DFW airport.  There are plenty of restaurants and shopping in the area.  The room is average.  The bed was comfortable but I could have used better pillows.  They were small and soft and even lumping them all together still barely got me a normal single pillow.  The property was relatively clean.  The problems started because there were several sports teams in town for the weekend for various tournaments.  When we were involved in select/club sports we had teams stay at this particular property as well.  It is situated convenient to several sports venues so it is a popular choice.  However, that means that you have kids of various ages (teens &amp; pre-teens) roaming around.  There are plenty of clubs and teams with kids who know how to behave in public.  On this particular weekend, there was a basketball team of teenage boys that were unruly and not well supervised.  The kids were all in a room together with no adult (pretty sure you have to have someone over the age of 18 in the room with them but that didn't happen).  They were loud, obnoxious, disrespectful and rude.  I called the front desk to complain.  Eventually their coach/manager showed up and told them to calm down.  That lasted about 5 minutes.  It was after 1:00am and there was no sleep to be had.  Finally, after my second call down to the front desk (at 2:30am) I called and asked to be moved to another room which was quieter.  My main problem is that from a customer service standpoint, the hotel should not have allowed the issues with noise to go on for hours in the middle of the night.  I cannot have been the only room complaining.  Secondly, they should have offered to move me to another room.  I shouldn't have had to ask.  I am a Marriott rewards member which should have counted for something.  I actually called other hotels in the area in the middle of the night to see if someone had a room available. If I was going to have to pack myself up in the middle of the night, it would have been just as easy to leave and go somewhere else.  I was supposed to stay a second night but opted to check out and find a different hotel for the next night.  There are too many options out there these days and let's face it, most hotels are very...More</t>
   </si>
   <si>
+    <t>Lexiemood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r218760376-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1266,6 +1398,9 @@
     <t>I stayed in this hotel for a month and a half and I can honestly say that I made friends. The employees were so kind and always welcomed me and my family right as we walked in. Hannah at the front desk was always so helpful, as well as Cesar. The bistro has delicious food, and great coffee. Geran and Cameron really put a lot of effort into making sure I had everything I needed. The rooms were clean, and the gym was really nice. I didn't use the pool because I'm not a swimmer, but my family enjoyed the use of it. It's also very easily accessible from nearly every angle. Will definitely be staying with the Marriott again.More</t>
   </si>
   <si>
+    <t>IndyOmahaCincyKid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r217217373-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1425,9 @@
     <t>The staff at this hotel are incredibly helpful, courteous and friendly.  Like most Courtyard properties, the lobby/common area are very open, updated and inviting. The rooms are clean typical for  courtyard. The beds are a little soft but not terrible.  Make sure that you get a room NOT facing the road! it can be loud. On the other side of the hotel, it is quiet and peaceful. There are a couple of restaurants within walking distance and it is close to DFW but you don't hear any jet noise.More</t>
   </si>
   <si>
+    <t>sweetbabies2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r214567897-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1314,6 +1452,9 @@
     <t>We stayed for a week on a business trip.Switched rooms twice because the beds were too soft and caved in.The rooms were nice and clean.The front desk was eager to help with extra blankets, towels or pillows and made sure that you have a pleasant stay.The outdoor pool was clean and well maintained felt comfortable swimming in it.Overall great but won't return because of beds (goodnight sleep  is important to us).More</t>
   </si>
   <si>
+    <t>Alan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r213503880-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1473,9 @@
     <t>Business recently took me to Lewisville.  Since I've hit the road again for business, traveling domestically within The States every week, I've been on jag staying at Courtyard Marriott hotels.  They generally offer a good balance of clean, quiet and comfortable at reasonable cost.  And it's easy to book on the Marriott website. The Courtyard in Lewisville did not disappoint.  My room was clean, quiet and comfortable!  However, the reason I am writing this review is because of the staff at this hotel.  They are without question the absolute friendliest group of people I have encountered at a hotel!!  Every person that I met greeted me with a smile and a kind word!  The guy that checked me in (I did not catch his name) even commented that I had been a Marriott Rewards member since 1987!  WOW  And the photo shows what was waiting in my room upon arrival.  Definitely would stay there again and heck, I may just stop in there sometime to chat with all of my new friends!More</t>
   </si>
   <si>
+    <t>Becky B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r211427666-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1500,9 @@
     <t>Hotel was nice. Everything was clean. Comfortable bed. Was somewhat disappointed there was no refrigerator in the room.  Hannah at the front desk was super nice and helpful. There is a bistro but breakfast is not provided. More</t>
   </si>
   <si>
+    <t>Stephen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r210838299-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1524,9 @@
     <t>I was surprised that this hotel did not offer free breakfast. Maybe I am just not familiar with Marriott enough to know. Right next door is another Marriott that does offer free breakfast. Had to pay ridiculous prices for what they offered. But the room was fine and very clean. The staff was pleasant and accommodating.More</t>
   </si>
   <si>
+    <t>OoohDonna2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r210734528-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1398,6 +1548,9 @@
     <t>The service and friendliness of everyone at this hotel by far out-ranks any Five Star hotel. I travel weekly and I always stay here when I'm in the Dallas area.  I can't say enough about the staff - I'm greeted by name when I arrive for my stay, I'm thanked for being a Platinum Member and everyone has a smile on their face all the time!  Housekeeping keeps the room sparkling clean and they're very trustworthy. I left my daily tip on the desk and it was there when I returned, so each day I left a note with it - I've never seen such integrity!  The General Manager is in the Bistro every morning helping staff and making sure everyone is taken care of. He's very friendly to everyone.  Can't say enough about this Courtyard.  (Another plus is that there is a big mall right up the road)More</t>
   </si>
   <si>
+    <t>Stacy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r207740749-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1572,9 @@
     <t>I recently stayed at the Courtyard Dallas Lewisville while visiting my family.  The staff was wonderful and went above my expectations. Michele and April were at the desk when we arrived and were so friendly and truly cared about my happiness during my stay. I also met several employees who always spoke to me throughout my visit. I even got a welcome bag for being a member of the Marriott program.More</t>
   </si>
   <si>
+    <t>greg t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r206633789-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1596,9 @@
     <t>Would stay here again, room was clean, bed was very comfortable, and staff was very friendly.  Enjoyed the bar downstairs.  Plenty of restaurants around the hotel, any type of food you would want.  Mall is basically next door also.More</t>
   </si>
   <si>
+    <t>Kim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r200568222-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1620,9 @@
     <t>I travel a lot and stay at different hotels throughout the United States.  I chose to stay at this Courtyard simply due to location to clients but quickly learned I had made the right choice.The staff, as a whole, was phenomenol.  Everyone from the front desk to the restaurant and even the housekeeping staff went above and beyond to make my experience pleasant and worry free.I will stay at this location every time I travel to Dallas.  Thanks for your hospitality!More</t>
   </si>
   <si>
+    <t>Bill J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r199829287-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1647,9 @@
     <t>The night auditor Casey exhibited energy, enthusiasm, and commitment to stellar service. Go Team Casey!He was very welcoming and provided a great experience during my stay.Thanks for the 4am taxi too! Much appreciated!More</t>
   </si>
   <si>
+    <t>TJL701_2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r190286396-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1512,6 +1677,9 @@
     <t>Booked this hotel for my parent's, we stayed at my wife's uncle's home 2 nights and 1 night here. The staff was EXCELLENT!  Went above and beyond to make my folks feel comfortable. Parent's said breakfast was good. Many more amenities than expected. HIGHLY RECOMMEND selecting this hotel if in the area.  Easy access to all major roads and highways.  We were able to get to Jerry World for the Cotton Bowl in 30 minutes!More</t>
   </si>
   <si>
+    <t>Tricia P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r189282678-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1698,9 @@
     <t>We had at great time during our stay. Everyone was super friendly and very helpful! The rooms were nice, roomy and clean. The location of the hotel is near a great mall and many choices of places to eat. We will certainly be coming back on our next visit.A special thank you to Reniece and Glenny!More</t>
   </si>
   <si>
+    <t>C M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r187727278-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1722,9 @@
     <t>Just here on business and found the staff to be fantastic. Quick check in, friendly and efficient breakfast staff.  Right off of the freeway, it's easy to get to.  The breakfast items are a little pricey but well done and quick.  More</t>
   </si>
   <si>
+    <t>Pat1801</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r186829079-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1743,9 @@
     <t>We were returning home after Thanksgiving trip to see family and stayed at this facility overnight to catch a morning flight back home to WI.  The night before we accidentally left the lights on our rental car and the next morning the battery was dead.  We checked back at the desk to see what our options would be.  After trying to contact AAA, Elissa, one of the staff members, came to our rescue with jumper cables, and in no time we were on our way.  You'd think that the woman was from WI.  Couldn't believe anyone in TX would carry jumper cables in their trunk!  Anyway, Elissa you were a sweetheart and greatly appreciated.  Marriot hotels are our choice and have been our choice for many, many years simple because of this.More</t>
   </si>
   <si>
+    <t>gaganahuja</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r185456313-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +1773,9 @@
     <t>Never in my life i have stayed in a business hotel that has bed in such bad shape....called the front desk but the guy could not help as the hotel was sold out. I slept entire night as if in a hammock.Everything is old in the room... desk is chipped, chairs are ridiculously spotty, old linen that smells of detergent...Property does not meet the class of "Marriott Courtyard".More</t>
   </si>
   <si>
+    <t>Kris A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r184521855-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1632,6 +1812,9 @@
     <t>Overall a great stay! I walked into the lobby and was welcomed by Frank and Cesar at check-in. They were very helpful, friendly, and courteous.  The lobby was very inviting. A bistro with Starbucks coffee! I knew where I was going every morning.  I had breakfast all three mornings.  Each day welcomed by friendly staff. The food was nicely presented and tasted great. The healthy start sandwich is outstanding and recommended.  I didn't have the chance to try out the the dinner options but was very tempting.  The room was very well cleaned and the bed really comfy. Thank you to your friendly staff making my stay very memorable.  Definitely coming back next time I'm in the Dallas area!  Well done!More</t>
   </si>
   <si>
+    <t>schester1906</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r184081382-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1650,6 +1833,9 @@
     <t>This is an amazing property.  I stayed here with a few friends to explore the dallas area for a couple of days. From the moment we walked in we were greeted with warm smiles and fast service. Rooms are clean and comfy.  And the breakfast presentation was fresh and original.  Ill definitely stay here again.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r182294474-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1857,9 @@
     <t>Hotel was out dated.  I requested a fridge in my room and it looked like they took an old one out of a storage closet and dumped it on the floor... I went to the cafe and ordered breakfast... They lost my ticket after waiting 45 min and then when I brought it to their attention, the server said she would take care of it and I never saw her again.  After another 10 minutes I had to go back up to the counter, tell them what happened again and wait another 15 minutes.More</t>
   </si>
   <si>
+    <t>Joseph F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r181935262-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1695,6 +1884,9 @@
     <t>I have stayed at this hotel many times and I have grown tired of the outdated environment.  The showers are 10 years old, the sinks leak at the fixture and now the Bistro creates massive back-ups when breakfast needs to be timely...More</t>
   </si>
   <si>
+    <t>Saul T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r181260277-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1711,6 +1903,9 @@
   </si>
   <si>
     <t>The Courtyard hotel was very clean and had a clean smell on entry. I was greeted with a smile and very friendly service. This was a business trip but I prefer the relaxed atmosphere (A Happy Happy Happy place). Room was very clean (good smell) and designed to my needs (internet, plug-ins placed conveniently, nice work area). The one complaint I have would be the price of the beverages in the restuarant.  Other than that great service and very clean.More</t>
+  </si>
+  <si>
+    <t>rsfred</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r180863984-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1737,6 +1932,9 @@
 If there had been room's available next door at the Fairfield, it would have...Spent one night there this weekend. Hotel was full.  Clerks at front desk were very nice-I saw a woman there after 7 at night and she was back by 7:15 the next morning-I asked if she spent the night there. We've stayed here before because I like the location, but I felt nothing, except lobby, had been updated since our last visit a few years ago. Beds and pillows were soft, towels were thin. Old-style sink with minimal vanity area. No free coffee anywhere except in room. We bought the breakfast package-oh my. We got downstairs at 7:15 with plans to leave at 8. There were quite a few eating/waiting on breakfast. One man was grumbling because all he had ordered was coffee and he'd had a long wait. Later someone enquired about his hot chocolate. I ordered eggs, my spouse ordered oatmeal.  At about 7:35, he got his oatmeal (20 min wait for oatmeal?). We kept checking on my eggs.  At 7:58, they were ready-43 min after ordering. The rest of our party had been waiting on my food to arrive so we could go. I gobbled them down, didn't have time to eat the fruit. Very disappointing! We are Marriott Gold members and stay in Marriott as much as possible. We'll think twice before staying here again and especially about buying the breakfast package. If there had been room's available next door at the Fairfield, it would have been $20 cheaper and I imagine the breakfast experience would have been better! My son was staying there and he said rooms needed update, though. With newer properties across the street (Hampton, Hilton Garden), I would think Marriott is going to have to spend some money on their two.More</t>
   </si>
   <si>
+    <t>Marina G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r180040204-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1755,6 +1953,9 @@
     <t>We recently conducted a company training meeting for approximately 25 reps who were a combination of local and regional participants. The first day of training the staff was present and attentive to making changes requested. They did a great job at making sure our expectations were met throughout our event with regard to the space, food, transportation, etc. Would highly recommend this location for small events in the area.More</t>
   </si>
   <si>
+    <t>Ricky C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r179749978-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1773,6 +1974,9 @@
     <t>I've stayed here many times in the last few months and every time is just as enjoyable as the last. The staff is friendly and the rooms are very comfortable. The lobby is great for grabbing a bite to eat or a night cap. Melissa is very friendly, entertaining, and makes a mean martini! :) The rabbits running around the courtyard are fun too! Looking forward to my next stay here.More</t>
   </si>
   <si>
+    <t>pas1280</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r179654549-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1797,6 +2001,9 @@
     <t>I stayed here for one night and I will never come back. I was surprised at how terrible my experience was considering all the good reviews. My room was clean and that's about the only thing that made my stay tolerable. The room did not provide a safe to leave valuable items in. Air conditioner was "on" but the room felt hot and humid. There was not a refrigerator for chilling water and drinks. The bed mattresses need replacing, they were sinking in the middle  which resulted in backaches the following morning. To top it all off, the lady at the front desk overcharged me for items I bought at their convenience store and mistakenly charged them on my credit card instead of the debit card I handed her. More</t>
   </si>
   <si>
+    <t>Jan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r179130130-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1827,6 +2034,9 @@
     <t>Stayed here for 5 days, excellent hotel staff fantastic especially Josie, Dana and Ilana so helpful to out of towners.  The new Lobby is fabulous with interactive screen which was extremely useful. Would recommend this hotel.More</t>
   </si>
   <si>
+    <t>tinkerbtch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r177189453-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1851,6 +2061,9 @@
     <t>Stay date 9/15/2013.  I agree that the staff here are helpful and friendly. The lobby is great, featuring a large touch screen tv., tables, chairs and an office center.  It is very cozy..It's very up to date and attractive.  The staff all but stands at attention when you walk in and are eager to assist you in anyway they can and I really appreciate that, though I wanted to tell them "at ease" sometimes..I'm not a drill sargeant or some sort of VIP..but I do truly appreciate that they let you know they are there to help you, quickly manning their stations and never making you wait for ANYTHING!  (that was nice).  The rooms are clean and everything is spotless.  The beds are so-so, but nothing to write home about and the ugly blue carpet in the guest room..well..it's really really ugly and makes you feel like you stepped back into the late 80's to early 90's., though it appears to not be old.  I wouldn't say the rooms reflect any beautiful theme or taste..they are bland..but never the less it's a comfortable and clean stay with very attentive staff.  I love that they have a bar, bistro and a small "store" area for odds and ends, drinks, snacks etc that isn't extremely over priced.  (Tip:  There is a 20 deposit charged for incidentals).  Overall this is a great hotel, though the decor of the rooms could use the same...Stay date 9/15/2013.  I agree that the staff here are helpful and friendly. The lobby is great, featuring a large touch screen tv., tables, chairs and an office center.  It is very cozy..It's very up to date and attractive.  The staff all but stands at attention when you walk in and are eager to assist you in anyway they can and I really appreciate that, though I wanted to tell them "at ease" sometimes..I'm not a drill sargeant or some sort of VIP..but I do truly appreciate that they let you know they are there to help you, quickly manning their stations and never making you wait for ANYTHING!  (that was nice).  The rooms are clean and everything is spotless.  The beds are so-so, but nothing to write home about and the ugly blue carpet in the guest room..well..it's really really ugly and makes you feel like you stepped back into the late 80's to early 90's., though it appears to not be old.  I wouldn't say the rooms reflect any beautiful theme or taste..they are bland..but never the less it's a comfortable and clean stay with very attentive staff.  I love that they have a bar, bistro and a small "store" area for odds and ends, drinks, snacks etc that isn't extremely over priced.  (Tip:  There is a 20 deposit charged for incidentals).  Overall this is a great hotel, though the decor of the rooms could use the same type of updates as the lobby.  Its disappointing to see an ultra sheik lobby and then walk into a room that doesn't reflect the lobbys gorgeous style.  I would definitely stay here again though.  I just wish they would be more concerned with where you actually live during your stay, than the lobby..or at least give it the same amount of attention.  Great stay though and thanks to the staff for being so friendly and helpful.More</t>
   </si>
   <si>
+    <t>marvincitotx1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r177076174-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1869,6 +2082,9 @@
     <t>She was attentive and profesional. she is the reason I love Courtyard Marriot. Please hire more people like her. She has a warm smile from the minute we walked in. She is very knowledgable. I had the same experience in every Marriot property since 2001. I will definetly come back!!More</t>
   </si>
   <si>
+    <t>Chris H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r177036509-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1884,6 +2100,9 @@
     <t>I travel a lot for work and tend not to have any allegiance to any brand of hotel. But whenever I go to the Dallas area, I make it a point to stay here. The staff is exceedingly friendly and courteous and goes out of their way to accommodate you. I've never had a problem or fees associated with making last minute changes.More</t>
   </si>
   <si>
+    <t>anthony d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r176937477-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1905,6 +2124,9 @@
     <t>during my stay at this hotel, I was very pleased with the amount and the quality of guest service that I received. I first want to point out the front desk girl, Illeana. She was very sweet, professional, and informative. secondly when I visited the bar during my stay, I was pleasantly surprised at the staff and the way they worked together and attended to all the guests needs, including mine. the bartender, melissa, was extremely patient and relaxed, despite being very busy. I was able to enjoy my stay here even more so because of these reasons. keep up the great work! I'll be visiting again soon!More</t>
   </si>
   <si>
+    <t>jaycer02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r125995939-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1923,6 +2145,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r123374117-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1941,6 +2166,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Jim I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r122405108-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1959,6 +2187,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Richgray68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r119964226-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1995,6 +2226,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Robert E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r117879725-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2028,6 +2262,9 @@
     <t>check in was fast as friendly, room was clean and comfortable, food was hot and fresh - thats all I need in a stay.</t>
   </si>
   <si>
+    <t>jddinsmore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r116939090-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2061,6 +2298,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>snuwar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r116158236-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2076,6 +2316,9 @@
     <t>This hotel excels in the following areas:1) Workout room - clean, new/well maintained equipment, cardio equipment variety2) Whirlpool3) Breakfast - the cornerstone of every mind-numbing business trip4) Friendly staff</t>
   </si>
   <si>
+    <t>starbuck4u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r116117924-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2091,6 +2334,9 @@
     <t>I would like to thank Amy, Bill, Jeff, Philip, Vanessa and Olga, for the fantastic service.  I really appreciated the extra efforts in accomadating my colleague's and myself for the past 3 weeks.  I would still be there for another 3 weeks but for the pet policy which is understandable and becuase of the excellent service provided by this merriot staff, I transfered to another Merriot property that has pet friendly accomadations.thank you again for all your great service, rm #336Dave FowlerHouston, texas</t>
   </si>
   <si>
+    <t>SunFun0711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r116063489-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2106,6 +2352,9 @@
     <t>Friendly staff.  Clean rooms.  Comfortable beds.  Spacious.  Enjoyed the pool and exercise room.  Good quick breakfast.  Plenty of restuarants and shopping close by.  Very clean.  We enjoyed our stay and will be back.</t>
   </si>
   <si>
+    <t>kdaniels2112</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r115978135-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2121,6 +2370,9 @@
     <t>I travel quite frequently, and when I find a hotel I like, I stick with it.  On my most recent trip, I could have stayed in a more convenient hotel than this one.  However, the staff is great, the room is always perfect, the fitness center, while small, is always in working order, and my expectations are always exceeded.  I may have to drive a few additional miles, but it's worth it for a great night's sleep when on the road.</t>
   </si>
   <si>
+    <t>Bill E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r115801489-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2136,6 +2388,9 @@
     <t>The Coutyards are always a clean hotel.  You know what you are getting and  that is nice.Good service, breakfast was also nice ..</t>
   </si>
   <si>
+    <t>one160750</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r115366309-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2151,6 +2406,9 @@
     <t>Hotel was clean with comfortable beds. This hotel is perfect for anyone who has business in Lewisville other nice plus were free WiFi throughout and a quick well priced breakfast buffet.</t>
   </si>
   <si>
+    <t>MaryEllenSantee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r114585644-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2169,6 +2427,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>tthur68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r113841956-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2184,6 +2445,9 @@
     <t>My company held a three day workshop at this Courtyard and the staff at this hotel was fantastic.  You can beat the free breakfast buffet to start your day.  Beds are comfortable and the a/c is ice cold!  Don't even think about staying somewhere else when you're in Lewisville.</t>
   </si>
   <si>
+    <t>aeswhiz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r113730535-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2199,6 +2463,9 @@
     <t>The hotel was pretty full and the only noise I heard (other than those I made myself ) was my next-door-neighbor's door closing.  I never heard anyone's TV, water running, footsteps, voices, anything -- it was wonderful!  These rooms must be insulated really well!</t>
   </si>
   <si>
+    <t>lindale_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r113121252-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2217,6 +2484,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>comag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r112315093-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2232,6 +2502,9 @@
     <t>This may be the best of the lot in Lewisville, but it's still old, needs renovation, could not get my bill updated when i checked out, then never emailed it to me as requested. I'd stay here again, it's not terrible, but it's not that good either</t>
   </si>
   <si>
+    <t>Cleo1959</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r111208785-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2247,6 +2520,9 @@
     <t>When visiting the Dallas area, this is the only hotel I will stay at if I'm given a choice.  The service is consistent and pleasant.  It is always clean and very welcoming as you walk into the lobby area.  Breakfast food and service is always good.  Can't say that I've ever had a bad stay at this facility!</t>
   </si>
   <si>
+    <t>ojackieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r111109002-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2259,6 +2535,9 @@
     <t>The hotel was very clean and comfortable. The Romance Package we booked went above and beyond my expectations. It was well worth the money we spent to stay.</t>
   </si>
   <si>
+    <t>cccourt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r111107041-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2271,6 +2550,9 @@
     <t>This is a hotel in which I have stayed for well over a decade.  The hotel is a check in type and does not offer amenities but for help yourself types.  Just what I want!  They have redone the hotel at least twice over the years and appear to want to keep up appearances.    My grandchildren enjoy joining me at this location and love the pool and hot tub area.  Perfect location...easy in/out.</t>
   </si>
   <si>
+    <t>Travel159549</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r110296958-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2289,6 +2571,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>pstarr67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r108081493-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2307,6 +2592,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>nolo96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r107288253-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2322,6 +2610,9 @@
     <t>Old style Courtyard property conveniently located in Lewisville; plenty of great spots to eat and drink within a few minutes of the hotel.  Rooms feel a little old but the TV reception was flat terrible.  The analog signal with digital TV left me feeling like I was watching ESPN through a snow storm.  Not on the standard LodgeNet program so no in room entertainment options.  Staff was super friendly and they pour a mean drink in the bar so I can forgive the TV!</t>
   </si>
   <si>
+    <t>S6P1R1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r106824554-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2340,6 +2631,9 @@
     <t>I am writing on behalf of S.P. Richards Company.  Recently we relocated our Dallas Distribution center to Coppell, TX.  During the transition, we partnered with the Marriott Courtyard located in Lewisville, TX to accommodate several hundred colleagues during an extended weekend.  The service and commitment  from the staff and management was praise worthy. One of the best compliments a company can receive is to have an existing client recommend them to a business associate. It’s especially rewarding to know you have that level of confidence in us. Please accept this review as a small token of our appreciation and as a thank you for your #1 service.I personally thank the Marriott Courtyard for choosing to do business with us. My sincere thanks! Jackie RedmondMore</t>
   </si>
   <si>
+    <t>MattMiz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r106822652-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2355,6 +2649,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>Lilone0124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r102176998-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2370,6 +2667,9 @@
     <t xml:space="preserve">The front desk people are very helpful, courteous, knowledgeable and friendly. They made us feel like they really value our business. The housekeeping department is also something to commend. They cleaned our rooms so well and put supplies constantly. I will definitely recommend this hotel. </t>
   </si>
   <si>
+    <t>Operations_Logistics</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r102158648-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2382,6 +2682,9 @@
     <t>I enjoyed staying at this hotel. The staff was friendly and very accomating and helpful. They bent over backwards to make me happy. The food in the restaurant was delicious and Olga head of the kitchen was determined to provide perfect service. The overall experience was very pleasant and I felt like I was at home in many ways.You can't go wrong by selecting this hotel. The location of the hotel was perfect for my business requirements. It is close to varied restaurants and other shopping venues.I like this hotel and will stay here again when I return to Dallas.</t>
   </si>
   <si>
+    <t>OFM42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r86395117-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2400,6 +2703,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>rcsmart86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r86373538-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2415,6 +2721,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>AnnP__10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r83144950-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2439,6 +2748,9 @@
     <t>I have stayed at this property now for over six years when I'm in the DFW area.  Everyone that works here is very friendly and helpful from the Manager down to Housekeeping and Maintenance.  They keep the property in tip-top shape. They have beautiful gounds and an awesome courtyard.   If you notice that something needs to be done, they immediately take care of it.  They become familuar with the preferences with all of their guests whether it is a first-time stay or like me, a returning guest.  You feel like you have a family here, which is nice for the solo traveler.  The location is perfect to get to anyplace in the DFW metroplex and there are a number of great resturants close by.More</t>
   </si>
   <si>
+    <t>Charlie4563</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r80873696-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2466,6 +2778,9 @@
     <t>I travel to the Dallas area almost weekly and always stay at this hotel.  The staff is very friendly and accommodating.More</t>
   </si>
   <si>
+    <t>Brerto007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r80493553-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2484,6 +2799,9 @@
     <t>I had the chance to at this hotel and was very surprised. The rooms were clean and comfortable. The price was good and the people were so nice and helpful. Marriott should be proud to have their name on this one. Everyday I was greated with a smile and a good morning. Always with respect and every night they called my room and asked how I was enjoying my stay. All hotels could take a lesson from this hotel.More</t>
   </si>
   <si>
+    <t>Robb O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r24444735-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2505,6 +2823,9 @@
     <t>I have been staying here overy other week for the last 8 months!!!The prices are reasonable, the staff is fantastic, and the beds VERY comfortable.  This place is great for both the business traveler and families.  However, it is not a resort.More</t>
   </si>
   <si>
+    <t>friendofmoose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r14388284-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2520,6 +2841,9 @@
     <t>Overwhelmed staff here went beyond inefficient service to create some potential danger; on a night when many flights got cancelled and they had last-minute bookings, the indifferent front desk staff assigned me to a room that was already occupied, frightening the (female) occupant, understandably. The manager offered a weak apology to me (not sure about the occupant). She didn't seem very concerned at all, so I went next door to an extremely nice Holiday Inn Express. I usually love Courtyards, but bring your own locks to this property!</t>
   </si>
   <si>
+    <t>mrxinu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r14169211-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2541,6 +2865,9 @@
     <t>I stayed at this hotel for a period of 8 weeks with some brief breaks to head home. For the majority of the stay I was in one of their double queen suites and finished it out in one of their king suites.The high point of my stay had to be the convenient breakfast in the restaurant downstairs. They have full hot &amp; cold breakfast and a specialized menu featuring a delicious breakfast burrito. They'll also serve eggs any way you like have a couple other interesting items like their "broken egg sandwich."The rooms were comfortable, the beds were soft, and the water pressure/heat was good. The internet speed was good for the most part as long as there aren't 3 sports teams checked in and mobbing myspace. =)Overall, the staff was friendly &amp; courteous and after the first few days knew me by name, remembered my preferences for breakfast, etc. I'd definitely stay there again.More</t>
   </si>
   <si>
+    <t>TravelerBlues</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r10208506-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2559,6 +2886,9 @@
     <t>Stayed here for 2 nights and overall was a good value and clean hotel.  Had a little problem at check-in as the first room they put me in was next to some very loud people.  Granted it was only 1 o'clock in the afternoon, but after a long flight I didn't feel like listening to that when I wanted to take a nap.  I asked to be switched to a new room.  They hesitated slightly but then agreed to put me in a new room.  I went up to the new room and the key did not work.  Went back down to the desk, they rekeyed it after telling me that I must have put it up to something magnetic (which I hadn't).  Went back up with another key and that key didn't work either.  Went back down to the desk and at this point was getting a little irritated.  Of course there was a new person working at the desk who I then had to explain my whole story to again.  She even asked to see my ID to make sure I was the person I was claiming to be.  I suppose if I wasn't already upset I wouldn't have been irritated that she asked to see my ID because actually it was for my own safety.  So I went back up to the room with my 3rd key and it finally worked!  The hotel had a nice workout...Stayed here for 2 nights and overall was a good value and clean hotel.  Had a little problem at check-in as the first room they put me in was next to some very loud people.  Granted it was only 1 o'clock in the afternoon, but after a long flight I didn't feel like listening to that when I wanted to take a nap.  I asked to be switched to a new room.  They hesitated slightly but then agreed to put me in a new room.  I went up to the new room and the key did not work.  Went back down to the desk, they rekeyed it after telling me that I must have put it up to something magnetic (which I hadn't).  Went back up with another key and that key didn't work either.  Went back down to the desk and at this point was getting a little irritated.  Of course there was a new person working at the desk who I then had to explain my whole story to again.  She even asked to see my ID to make sure I was the person I was claiming to be.  I suppose if I wasn't already upset I wouldn't have been irritated that she asked to see my ID because actually it was for my own safety.  So I went back up to the room with my 3rd key and it finally worked!  The hotel had a nice workout room so I was able to get a good workout in while I was there.  The only other thing about this the hotel is it is kind of hard to get to from the highway.More</t>
   </si>
   <si>
+    <t>MrBeanUSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r10030718-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2580,6 +2910,9 @@
     <t>My wife and I stayed at this very good hotel for four days (Thursday thru Monday) and got the weekend rate of $ 69.99 for each night.  The rooms are very clean with all the amenities and a great shower head with excellent pressure.  We were easily upgraded to a king standard room instead of two queen beds.  The breakfast was very good, as well as the bar drinks and draft beer – all reasonably priced.  The pool area, Jacuzzi, and exercise room are all very nice.  The business office is very adequate with two computers and printers for complimentary use by hotel guests.  This hotel is in an excellent location just behind Costco and less than a mile from a very nice mall.  The entire staff was very friendly and courteous, and went out of their way to make us very comfortable.  We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>txn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r8662567-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -2599,6 +2932,9 @@
   </si>
   <si>
     <t>We stayed at the Courtyard in Lewisville for four nights in August, 2007.  We got a great "weekend" rate that included Thursday - Sunday nights, along with a free breakfast buffet for each guest.  We had reserved a king size bed with a cot but since my teenaged son brought a friend, we were able to change the reservation to two queen beds for $10 more a night.  The beds are very comfortable and the bath/shower area very nice as well.  There is free parking.  We didn't have time to really utilize the pool but it looked nice.  The breakfast buffet had made to order eggs, plus do it yourself waffles, premade potatoes, wonderful bacon, biscuits, gravy, cereal, pastries, yogurt and fruit. We paid $89 a night and booked directly through the Mariott website.  If we had stayed one more night (on Monday night) the rate for each night would have been a lot higher, so we stayed at a different hotel for Monday night.  We stayed here last September and I would stay again if I could get a good rate.More</t>
+  </si>
+  <si>
+    <t>LoriClark</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d223847-r7329071-Courtyard_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -3148,43 +3484,47 @@
       <c r="A2" t="n">
         <v>41865</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>126936</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -3202,56 +3542,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41865</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>81119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3267,56 +3611,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41865</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>126937</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3328,56 +3676,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41865</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>126938</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3389,56 +3741,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41865</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>17022</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3450,56 +3806,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41865</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>126939</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3511,56 +3871,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41865</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2657</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3572,56 +3936,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41865</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>126940</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3633,56 +4001,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41865</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>96053</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3700,56 +4072,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41865</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>126941</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3765,56 +4141,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41865</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>50724</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3826,56 +4206,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41865</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>51991</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3893,56 +4277,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41865</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>29372</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3958,56 +4346,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41865</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>126942</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4025,56 +4417,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41865</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>126943</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4086,56 +4482,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41865</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>126944</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4147,47 +4547,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41865</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>126945</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -4204,56 +4608,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41865</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>126946</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4271,56 +4679,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41865</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>126947</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4338,56 +4750,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41865</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>126948</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4405,56 +4821,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41865</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>876</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4470,56 +4890,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41865</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4537,56 +4961,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41865</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>126949</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4604,56 +5032,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>41865</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>126950</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4665,56 +5097,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="X25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41865</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>126951</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4732,56 +5168,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41865</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>68513</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4799,56 +5239,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="X27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41865</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>6459</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4860,56 +5304,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="X28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41865</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>126952</v>
+      </c>
+      <c r="C29" t="s">
+        <v>296</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="J29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="K29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4925,56 +5373,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="X29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41865</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>418</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4992,56 +5444,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41865</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>42083</v>
+      </c>
+      <c r="C31" t="s">
+        <v>315</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -5059,56 +5515,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41865</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>126953</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -5126,56 +5586,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41865</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>126954</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -5193,56 +5657,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41865</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>126955</v>
+      </c>
+      <c r="C34" t="s">
+        <v>343</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -5258,56 +5726,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="X34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41865</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>126956</v>
+      </c>
+      <c r="C35" t="s">
+        <v>353</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5325,56 +5797,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="X35" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="Y35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41865</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>126957</v>
+      </c>
+      <c r="C36" t="s">
+        <v>361</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="J36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5386,56 +5862,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41865</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>10066</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5453,56 +5933,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="X37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="Y37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41865</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>14903</v>
+      </c>
+      <c r="C38" t="s">
+        <v>380</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="J38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="K38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5514,56 +5998,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="X38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41865</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>126958</v>
+      </c>
+      <c r="C39" t="s">
+        <v>390</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="J39" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="K39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5579,56 +6067,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="X39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="Y39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41865</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>5192</v>
+      </c>
+      <c r="C40" t="s">
+        <v>396</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5646,56 +6138,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="X40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="Y40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41865</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C41" t="s">
+        <v>242</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5713,56 +6209,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="X41" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="Y41" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41865</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>5098</v>
+      </c>
+      <c r="C42" t="s">
+        <v>414</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="J42" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5780,56 +6280,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="X42" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="Y42" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41865</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>126959</v>
+      </c>
+      <c r="C43" t="s">
+        <v>422</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="J43" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="K43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="L43" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5847,56 +6351,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="X43" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="Y43" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41865</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>50046</v>
+      </c>
+      <c r="C44" t="s">
+        <v>431</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="J44" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="K44" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="L44" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5912,56 +6420,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="X44" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41865</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>53993</v>
+      </c>
+      <c r="C45" t="s">
+        <v>441</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="J45" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="O45" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5979,47 +6491,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="X45" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="Y45" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41865</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>126960</v>
+      </c>
+      <c r="C46" t="s">
+        <v>451</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="J46" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="K46" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="L46" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -6046,56 +6562,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="X46" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41865</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>109512</v>
+      </c>
+      <c r="C47" t="s">
+        <v>458</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="K47" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6107,47 +6627,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="X47" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="Y47" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41865</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>126961</v>
+      </c>
+      <c r="C48" t="s">
+        <v>467</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="K48" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="L48" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
@@ -6174,56 +6698,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="X48" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="Y48" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41865</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>41377</v>
+      </c>
+      <c r="C49" t="s">
+        <v>476</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="J49" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="K49" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="L49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -6245,47 +6773,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="X49" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="Y49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41865</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>44325</v>
+      </c>
+      <c r="C50" t="s">
+        <v>483</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="J50" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="K50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="L50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -6312,56 +6844,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="X50" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="Y50" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41865</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>8055</v>
+      </c>
+      <c r="C51" t="s">
+        <v>492</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="J51" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="L51" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -6383,56 +6919,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="X51" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="Y51" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41865</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>126962</v>
+      </c>
+      <c r="C52" t="s">
+        <v>500</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="J52" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="K52" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="L52" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6454,56 +6994,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="X52" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="Y52" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41865</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>17334</v>
+      </c>
+      <c r="C53" t="s">
+        <v>508</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="J53" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="K53" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="L53" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6525,56 +7069,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="X53" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="Y53" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41865</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>124627</v>
+      </c>
+      <c r="C54" t="s">
+        <v>516</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="J54" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="K54" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="L54" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6596,56 +7144,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="X54" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="Y54" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41865</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>4280</v>
+      </c>
+      <c r="C55" t="s">
+        <v>524</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="J55" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="K55" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="L55" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6667,56 +7219,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="X55" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="Y55" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41865</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>7365</v>
+      </c>
+      <c r="C56" t="s">
+        <v>532</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="J56" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="K56" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="L56" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6734,56 +7290,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="X56" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="Y56" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>41865</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>126963</v>
+      </c>
+      <c r="C57" t="s">
+        <v>541</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="J57" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="K57" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="L57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6805,47 +7365,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="X57" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="Y57" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41865</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>71410</v>
+      </c>
+      <c r="C58" t="s">
+        <v>551</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="J58" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="K58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="L58" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -6872,56 +7436,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="X58" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="Y58" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41865</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>91052</v>
+      </c>
+      <c r="C59" t="s">
+        <v>558</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="J59" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="K59" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="L59" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6933,56 +7501,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="X59" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="Y59" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41865</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>126964</v>
+      </c>
+      <c r="C60" t="s">
+        <v>566</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="J60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="K60" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="L60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="O60" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -7004,56 +7576,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="X60" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="Y60" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41865</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>126965</v>
+      </c>
+      <c r="C61" t="s">
+        <v>573</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="J61" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="K61" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="L61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -7075,56 +7651,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="X61" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="Y61" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41865</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>69315</v>
+      </c>
+      <c r="C62" t="s">
+        <v>583</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="J62" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="K62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="L62" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7146,56 +7726,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="X62" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="Y62" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41865</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>17022</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="J63" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="K63" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="L63" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="O63" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7207,56 +7791,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="X63" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="Y63" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41865</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>126966</v>
+      </c>
+      <c r="C64" t="s">
+        <v>596</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="J64" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="L64" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="O64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7268,56 +7856,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="X64" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="Y64" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41865</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>603</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="J65" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="K65" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="L65" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7329,56 +7921,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="X65" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="Y65" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41865</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>24200</v>
+      </c>
+      <c r="C66" t="s">
+        <v>611</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="J66" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="K66" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="L66" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -7400,56 +7996,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="X66" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="Y66" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41865</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>126967</v>
+      </c>
+      <c r="C67" t="s">
+        <v>620</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="J67" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="K67" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="L67" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7471,56 +8071,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="X67" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="Y67" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41865</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>126968</v>
+      </c>
+      <c r="C68" t="s">
+        <v>627</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="J68" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="K68" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="L68" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="O68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7542,56 +8146,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="X68" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="Y68" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41865</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>126969</v>
+      </c>
+      <c r="C69" t="s">
+        <v>634</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="J69" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="K69" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="L69" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="O69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7613,56 +8221,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="X69" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="Y69" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41865</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>24537</v>
+      </c>
+      <c r="C70" t="s">
+        <v>641</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
       <c r="J70" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="K70" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="L70" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7684,47 +8296,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="X70" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="Y70" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41865</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>126970</v>
+      </c>
+      <c r="C71" t="s">
+        <v>648</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="J71" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="K71" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="L71" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
@@ -7751,56 +8367,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="X71" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="Y71" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41865</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>63289</v>
+      </c>
+      <c r="C72" t="s">
+        <v>657</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="J72" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="K72" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="L72" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="O72" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7822,56 +8442,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="X72" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="Y72" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41865</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>126971</v>
+      </c>
+      <c r="C73" t="s">
+        <v>668</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
       <c r="J73" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="K73" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="L73" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="O73" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7893,56 +8517,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="X73" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="Y73" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41865</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>126972</v>
+      </c>
+      <c r="C74" t="s">
+        <v>677</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="J74" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="K74" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="L74" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="O74" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7964,56 +8592,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="X74" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="Y74" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41865</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>265</v>
+      </c>
+      <c r="C75" t="s">
+        <v>684</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="J75" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="K75" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="L75" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="O75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -8035,56 +8667,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="X75" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="Y75" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41865</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>54014</v>
+      </c>
+      <c r="C76" t="s">
+        <v>690</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="J76" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="K76" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="L76" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="O76" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8106,56 +8742,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="X76" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="Y76" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>41865</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>126973</v>
+      </c>
+      <c r="C77" t="s">
+        <v>698</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="J77" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="K77" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="L77" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="O77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8179,50 +8819,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>41865</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C78" t="s">
+        <v>705</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="J78" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="K78" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="L78" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="O78" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8246,50 +8890,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>41865</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>86536</v>
+      </c>
+      <c r="C79" t="s">
+        <v>712</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="J79" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="K79" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="L79" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="O79" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -8313,50 +8961,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>41865</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>126974</v>
+      </c>
+      <c r="C80" t="s">
+        <v>719</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="J80" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="K80" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="L80" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="O80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8380,50 +9032,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>41865</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>126972</v>
+      </c>
+      <c r="C81" t="s">
+        <v>698</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="J81" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="K81" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="L81" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="O81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8447,50 +9103,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>41865</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C82" t="s">
+        <v>732</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="J82" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="K82" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="L82" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="O82" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8510,7 +9170,7 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
     </row>
     <row r="83">
@@ -8523,37 +9183,37 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>662</v>
+        <v>740</v>
       </c>
       <c r="J83" t="s">
-        <v>663</v>
+        <v>741</v>
       </c>
       <c r="K83" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
       <c r="L83" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="O83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8573,50 +9233,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>41865</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>126975</v>
+      </c>
+      <c r="C84" t="s">
+        <v>744</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="J84" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="K84" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="L84" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="O84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8636,7 +9300,7 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85">
@@ -8649,37 +9313,37 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="J85" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="K85" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="L85" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8699,50 +9363,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>41865</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>126976</v>
+      </c>
+      <c r="C86" t="s">
+        <v>756</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="J86" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="K86" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="L86" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8762,50 +9430,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>41865</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>126977</v>
+      </c>
+      <c r="C87" t="s">
+        <v>762</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="J87" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="K87" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="L87" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8825,50 +9497,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>41865</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>126978</v>
+      </c>
+      <c r="C88" t="s">
+        <v>768</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
       <c r="J88" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
       <c r="K88" t="s">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="L88" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O88" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8888,50 +9564,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>41865</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>126979</v>
+      </c>
+      <c r="C89" t="s">
+        <v>774</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>693</v>
+        <v>776</v>
       </c>
       <c r="J89" t="s">
-        <v>694</v>
+        <v>777</v>
       </c>
       <c r="K89" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="L89" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8951,50 +9631,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>41865</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>1647</v>
+      </c>
+      <c r="C90" t="s">
+        <v>780</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="J90" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="K90" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="L90" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O90" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -9014,50 +9698,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>41865</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>126980</v>
+      </c>
+      <c r="C91" t="s">
+        <v>786</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="J91" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="K91" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="L91" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="O91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9077,50 +9765,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>41865</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>126981</v>
+      </c>
+      <c r="C92" t="s">
+        <v>792</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>707</v>
+        <v>793</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="J92" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="K92" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
       <c r="L92" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="O92" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9138,50 +9830,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>41865</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>126982</v>
+      </c>
+      <c r="C93" t="s">
+        <v>799</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>713</v>
+        <v>800</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>714</v>
+        <v>801</v>
       </c>
       <c r="J93" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="K93" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
       <c r="L93" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="O93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9201,50 +9897,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>41865</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>126983</v>
+      </c>
+      <c r="C94" t="s">
+        <v>805</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>718</v>
+        <v>806</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>719</v>
+        <v>807</v>
       </c>
       <c r="J94" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="K94" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
       <c r="L94" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="O94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9264,50 +9964,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>41865</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>126984</v>
+      </c>
+      <c r="C95" t="s">
+        <v>811</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>723</v>
+        <v>812</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="J95" t="s">
-        <v>725</v>
+        <v>814</v>
       </c>
       <c r="K95" t="s">
-        <v>726</v>
+        <v>815</v>
       </c>
       <c r="L95" t="s">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="O95" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9327,50 +10031,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>727</v>
+        <v>816</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>41865</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>126985</v>
+      </c>
+      <c r="C96" t="s">
+        <v>818</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="J96" t="s">
-        <v>731</v>
+        <v>821</v>
       </c>
       <c r="K96" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
       <c r="L96" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="O96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9390,50 +10098,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>41865</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>126986</v>
+      </c>
+      <c r="C97" t="s">
+        <v>824</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>734</v>
+        <v>825</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>735</v>
+        <v>826</v>
       </c>
       <c r="J97" t="s">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="K97" t="s">
-        <v>737</v>
+        <v>828</v>
       </c>
       <c r="L97" t="s">
-        <v>738</v>
+        <v>829</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="O97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9453,50 +10165,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>738</v>
+        <v>829</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>41865</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>126987</v>
+      </c>
+      <c r="C98" t="s">
+        <v>830</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>739</v>
+        <v>831</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>740</v>
+        <v>832</v>
       </c>
       <c r="J98" t="s">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="K98" t="s">
-        <v>741</v>
+        <v>833</v>
       </c>
       <c r="L98" t="s">
-        <v>742</v>
+        <v>834</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="O98" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9516,50 +10232,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>742</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>41865</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>126988</v>
+      </c>
+      <c r="C99" t="s">
+        <v>835</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>743</v>
+        <v>836</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>744</v>
+        <v>837</v>
       </c>
       <c r="J99" t="s">
-        <v>736</v>
+        <v>827</v>
       </c>
       <c r="K99" t="s">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="L99" t="s">
-        <v>746</v>
+        <v>839</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="O99" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9579,50 +10299,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>746</v>
+        <v>839</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>41865</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>126989</v>
+      </c>
+      <c r="C100" t="s">
+        <v>840</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>747</v>
+        <v>841</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>748</v>
+        <v>842</v>
       </c>
       <c r="J100" t="s">
-        <v>749</v>
+        <v>843</v>
       </c>
       <c r="K100" t="s">
-        <v>750</v>
+        <v>844</v>
       </c>
       <c r="L100" t="s">
-        <v>751</v>
+        <v>845</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="O100" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9646,50 +10370,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>751</v>
+        <v>845</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>41865</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>126990</v>
+      </c>
+      <c r="C101" t="s">
+        <v>847</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>753</v>
+        <v>848</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>754</v>
+        <v>849</v>
       </c>
       <c r="J101" t="s">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="K101" t="s">
-        <v>756</v>
+        <v>851</v>
       </c>
       <c r="L101" t="s">
-        <v>757</v>
+        <v>852</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>758</v>
+        <v>853</v>
       </c>
       <c r="O101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9713,50 +10441,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>757</v>
+        <v>852</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>41865</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>126991</v>
+      </c>
+      <c r="C102" t="s">
+        <v>854</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>759</v>
+        <v>855</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>760</v>
+        <v>856</v>
       </c>
       <c r="J102" t="s">
-        <v>761</v>
+        <v>857</v>
       </c>
       <c r="K102" t="s">
-        <v>762</v>
+        <v>858</v>
       </c>
       <c r="L102" t="s">
-        <v>763</v>
+        <v>859</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="O102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9780,50 +10512,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>763</v>
+        <v>859</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>41865</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>126992</v>
+      </c>
+      <c r="C103" t="s">
+        <v>860</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>764</v>
+        <v>861</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>765</v>
+        <v>862</v>
       </c>
       <c r="J103" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
       <c r="K103" t="s">
-        <v>767</v>
+        <v>864</v>
       </c>
       <c r="L103" t="s">
-        <v>768</v>
+        <v>865</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>752</v>
+        <v>846</v>
       </c>
       <c r="O103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9847,50 +10583,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>769</v>
+        <v>866</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>41865</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>126993</v>
+      </c>
+      <c r="C104" t="s">
+        <v>867</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="J104" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
       <c r="K104" t="s">
-        <v>772</v>
+        <v>870</v>
       </c>
       <c r="L104" t="s">
-        <v>773</v>
+        <v>871</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>774</v>
+        <v>872</v>
       </c>
       <c r="O104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9914,41 +10654,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>773</v>
+        <v>871</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>41865</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>126994</v>
+      </c>
+      <c r="C105" t="s">
+        <v>873</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>775</v>
+        <v>874</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>776</v>
+        <v>875</v>
       </c>
       <c r="J105" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
       <c r="K105" t="s">
-        <v>778</v>
+        <v>877</v>
       </c>
       <c r="L105" t="s">
-        <v>779</v>
+        <v>878</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -9977,50 +10721,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>779</v>
+        <v>878</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>41865</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>126995</v>
+      </c>
+      <c r="C106" t="s">
+        <v>879</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>780</v>
+        <v>880</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>781</v>
+        <v>881</v>
       </c>
       <c r="J106" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
       <c r="K106" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
       <c r="L106" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>758</v>
+        <v>853</v>
       </c>
       <c r="O106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10044,50 +10792,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>41865</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>126996</v>
+      </c>
+      <c r="C107" t="s">
+        <v>884</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>784</v>
+        <v>885</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>785</v>
+        <v>886</v>
       </c>
       <c r="J107" t="s">
-        <v>786</v>
+        <v>887</v>
       </c>
       <c r="K107" t="s">
-        <v>787</v>
+        <v>888</v>
       </c>
       <c r="L107" t="s">
-        <v>788</v>
+        <v>889</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>789</v>
+        <v>890</v>
       </c>
       <c r="O107" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -10111,50 +10863,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>788</v>
+        <v>889</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>41865</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>126997</v>
+      </c>
+      <c r="C108" t="s">
+        <v>891</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>790</v>
+        <v>892</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>791</v>
+        <v>893</v>
       </c>
       <c r="J108" t="s">
-        <v>786</v>
+        <v>887</v>
       </c>
       <c r="K108" t="s">
-        <v>792</v>
+        <v>894</v>
       </c>
       <c r="L108" t="s">
-        <v>793</v>
+        <v>895</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>794</v>
+        <v>896</v>
       </c>
       <c r="O108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10178,50 +10934,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>793</v>
+        <v>895</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>41865</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>126998</v>
+      </c>
+      <c r="C109" t="s">
+        <v>897</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>795</v>
+        <v>898</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>796</v>
+        <v>899</v>
       </c>
       <c r="J109" t="s">
-        <v>797</v>
+        <v>900</v>
       </c>
       <c r="K109" t="s">
-        <v>798</v>
+        <v>901</v>
       </c>
       <c r="L109" t="s">
-        <v>799</v>
+        <v>902</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>794</v>
+        <v>896</v>
       </c>
       <c r="O109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10243,56 +11003,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="X109" t="s">
-        <v>801</v>
+        <v>904</v>
       </c>
       <c r="Y109" t="s">
-        <v>802</v>
+        <v>905</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>41865</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>126999</v>
+      </c>
+      <c r="C110" t="s">
+        <v>906</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>803</v>
+        <v>907</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>804</v>
+        <v>908</v>
       </c>
       <c r="J110" t="s">
-        <v>805</v>
+        <v>909</v>
       </c>
       <c r="K110" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="L110" t="s">
-        <v>807</v>
+        <v>911</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="O110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10314,56 +11078,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>809</v>
+        <v>913</v>
       </c>
       <c r="X110" t="s">
-        <v>810</v>
+        <v>914</v>
       </c>
       <c r="Y110" t="s">
-        <v>811</v>
+        <v>915</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>41865</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>127000</v>
+      </c>
+      <c r="C111" t="s">
+        <v>916</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>812</v>
+        <v>917</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>813</v>
+        <v>918</v>
       </c>
       <c r="J111" t="s">
-        <v>814</v>
+        <v>919</v>
       </c>
       <c r="K111" t="s">
-        <v>815</v>
+        <v>920</v>
       </c>
       <c r="L111" t="s">
-        <v>816</v>
+        <v>921</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="O111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10385,56 +11153,60 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>809</v>
+        <v>913</v>
       </c>
       <c r="X111" t="s">
-        <v>810</v>
+        <v>914</v>
       </c>
       <c r="Y111" t="s">
-        <v>817</v>
+        <v>922</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>41865</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>55476</v>
+      </c>
+      <c r="C112" t="s">
+        <v>923</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>818</v>
+        <v>924</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>819</v>
+        <v>925</v>
       </c>
       <c r="J112" t="s">
-        <v>820</v>
+        <v>926</v>
       </c>
       <c r="K112" t="s">
-        <v>821</v>
+        <v>927</v>
       </c>
       <c r="L112" t="s">
-        <v>822</v>
+        <v>928</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>823</v>
+        <v>929</v>
       </c>
       <c r="O112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -10456,47 +11228,51 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>809</v>
+        <v>913</v>
       </c>
       <c r="X112" t="s">
-        <v>810</v>
+        <v>914</v>
       </c>
       <c r="Y112" t="s">
-        <v>824</v>
+        <v>930</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>41865</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>127001</v>
+      </c>
+      <c r="C113" t="s">
+        <v>931</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>825</v>
+        <v>932</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>826</v>
+        <v>933</v>
       </c>
       <c r="J113" t="s">
-        <v>827</v>
+        <v>934</v>
       </c>
       <c r="K113" t="s">
-        <v>828</v>
+        <v>935</v>
       </c>
       <c r="L113" t="s">
-        <v>829</v>
+        <v>936</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
@@ -10515,50 +11291,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>829</v>
+        <v>936</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>41865</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>127002</v>
+      </c>
+      <c r="C114" t="s">
+        <v>937</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>830</v>
+        <v>938</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>831</v>
+        <v>939</v>
       </c>
       <c r="J114" t="s">
-        <v>832</v>
+        <v>940</v>
       </c>
       <c r="K114" t="s">
-        <v>833</v>
+        <v>941</v>
       </c>
       <c r="L114" t="s">
-        <v>834</v>
+        <v>942</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>835</v>
+        <v>943</v>
       </c>
       <c r="O114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10582,41 +11362,45 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>836</v>
+        <v>944</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>41865</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>127003</v>
+      </c>
+      <c r="C115" t="s">
+        <v>945</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>837</v>
+        <v>946</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>838</v>
+        <v>947</v>
       </c>
       <c r="J115" t="s">
-        <v>839</v>
+        <v>948</v>
       </c>
       <c r="K115" t="s">
-        <v>840</v>
+        <v>949</v>
       </c>
       <c r="L115" t="s">
-        <v>841</v>
+        <v>950</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
@@ -10635,50 +11419,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>842</v>
+        <v>951</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>41865</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>127004</v>
+      </c>
+      <c r="C116" t="s">
+        <v>952</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>843</v>
+        <v>953</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>844</v>
+        <v>954</v>
       </c>
       <c r="J116" t="s">
-        <v>845</v>
+        <v>955</v>
       </c>
       <c r="K116" t="s">
-        <v>846</v>
+        <v>956</v>
       </c>
       <c r="L116" t="s">
-        <v>847</v>
+        <v>957</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>848</v>
+        <v>958</v>
       </c>
       <c r="O116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10702,50 +11490,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>849</v>
+        <v>959</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>41865</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>127005</v>
+      </c>
+      <c r="C117" t="s">
+        <v>960</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>850</v>
+        <v>961</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>851</v>
+        <v>962</v>
       </c>
       <c r="J117" t="s">
-        <v>852</v>
+        <v>963</v>
       </c>
       <c r="K117" t="s">
-        <v>853</v>
+        <v>964</v>
       </c>
       <c r="L117" t="s">
-        <v>854</v>
+        <v>965</v>
       </c>
       <c r="M117" t="n">
         <v>4</v>
       </c>
       <c r="N117" t="s">
-        <v>855</v>
+        <v>966</v>
       </c>
       <c r="O117" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P117" t="n">
         <v>4</v>
@@ -10769,50 +11561,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>856</v>
+        <v>967</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>41865</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>127006</v>
+      </c>
+      <c r="C118" t="s">
+        <v>968</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>857</v>
+        <v>969</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>858</v>
+        <v>970</v>
       </c>
       <c r="J118" t="s">
-        <v>859</v>
+        <v>971</v>
       </c>
       <c r="K118" t="s">
-        <v>860</v>
+        <v>972</v>
       </c>
       <c r="L118" t="s">
-        <v>861</v>
+        <v>973</v>
       </c>
       <c r="M118" t="n">
         <v>4</v>
       </c>
       <c r="N118" t="s">
-        <v>862</v>
+        <v>974</v>
       </c>
       <c r="O118" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P118" t="n">
         <v>4</v>
@@ -10836,41 +11632,45 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>863</v>
+        <v>975</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>41865</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>603</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>864</v>
+        <v>976</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="J119" t="s">
-        <v>866</v>
+        <v>978</v>
       </c>
       <c r="K119" t="s">
-        <v>867</v>
+        <v>979</v>
       </c>
       <c r="L119" t="s">
-        <v>868</v>
+        <v>980</v>
       </c>
       <c r="M119" t="n">
         <v>5</v>
@@ -10897,7 +11697,7 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>869</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>
